--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
@@ -58,34 +61,37 @@
     <t>broke</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -94,9 +100,6 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -106,36 +109,36 @@
     <t>size</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -145,15 +148,15 @@
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>excellent</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.7692307692307693</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7204301075268817</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.59375</v>
+        <v>0.484375</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7184466019417476</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C8">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.3631147540983606</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L8">
-        <v>443</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>443</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>777</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554054054054054</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.3199426111908178</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L9">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="M9">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>474</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6041666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.2883817427385892</v>
+        <v>0.3242467718794835</v>
       </c>
       <c r="L10">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="M10">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>343</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.2232415902140673</v>
+        <v>0.2904564315352697</v>
       </c>
       <c r="L11">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="M11">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>254</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5966386554621849</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.2228915662650602</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>129</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,31 +1150,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.1169354838709677</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>219</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5370370370370371</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,31 +1200,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1026</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5246376811594203</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C15">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,31 +1250,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.04805194805194805</v>
+        <v>0.1130587204206836</v>
       </c>
       <c r="L15">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1466</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4631578947368421</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,7 +1300,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>0.05191434133679429</v>
+      </c>
+      <c r="L16">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>80</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1461</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1302,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4488188976377953</v>
+        <v>0.453125</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1320,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1328,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4096385542168675</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1346,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1354,13 +1384,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3515625</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1372,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1380,13 +1410,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3514851485148515</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1398,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1406,13 +1436,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3483146067415731</v>
+        <v>0.3984375</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1424,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1432,13 +1462,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3364928909952606</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1450,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1458,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2991452991452991</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1476,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1484,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2422680412371134</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1502,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1510,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2101449275362319</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1528,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>218</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1536,25 +1566,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1961367013372957</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C26">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>541</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1562,13 +1592,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1942857142857143</v>
+        <v>0.2183544303797468</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1580,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>141</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1588,13 +1618,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.19</v>
+        <v>0.2106824925816024</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1606,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>162</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1614,13 +1644,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1847133757961783</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1632,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1640,13 +1670,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1835443037974684</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1658,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>258</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1666,13 +1696,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.180379746835443</v>
+        <v>0.185</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1684,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>259</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1692,13 +1722,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1651982378854626</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1710,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>379</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1718,25 +1748,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1556195965417868</v>
+        <v>0.1784140969162996</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>293</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1744,13 +1774,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1542056074766355</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1762,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1770,25 +1800,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1310861423220974</v>
+        <v>0.1354466858789625</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>232</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1796,25 +1826,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1209677419354839</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1822,25 +1852,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1123287671232877</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>324</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1848,25 +1878,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.09570957095709572</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C38">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>548</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1874,25 +1904,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07366071428571429</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>415</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1900,25 +1930,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.04587155963302753</v>
+        <v>0.08072487644151564</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>624</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1926,25 +1956,51 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04166666666666666</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E41">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>759</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.03929024081115336</v>
+      </c>
+      <c r="C42">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>0.14</v>
+      </c>
+      <c r="F42">
+        <v>0.86</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
